--- a/Projects/SANOFIRU/Data/Template_old.xlsx
+++ b/Projects/SANOFIRU/Data/Template_old.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
@@ -38,6 +38,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">MSL!$A$2:$H$26</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
@@ -55,6 +60,11 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary Shelf_Location'!$A$2:$G$12</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$12</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
@@ -65,24 +75,29 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$J$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$H$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$G$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -94,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="141">
   <si>
     <t>KPI Name</t>
   </si>
@@ -153,6 +168,9 @@
     <t>Secondary Shelf</t>
   </si>
   <si>
+    <t>Product Minimum Facings Secondary</t>
+  </si>
+  <si>
     <t>MSL Compliance</t>
   </si>
   <si>
@@ -192,10 +210,58 @@
     <t>Points</t>
   </si>
   <si>
-    <t>A</t>
+    <t>A w/ POSM w/ CD</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A w/ POSM w/o CD</t>
+  </si>
+  <si>
+    <t>A w/o POSM w/ CD</t>
+  </si>
+  <si>
+    <t>A w/o POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-1 w/ POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-1 w/ POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-1 w/o POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-1 w/o POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-2 w/ POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-2 w/ POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-2 w/o POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-2 w/o POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-3 w/ POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-3 w/ POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-3 w/o POSM w/ CD</t>
+  </si>
+  <si>
+    <t>B-3 w/o POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-4 w/o POSM w/o CD</t>
+  </si>
+  <si>
+    <t>B-4 w/o POSM w/ CD</t>
   </si>
   <si>
     <t>ESSENTIALE FORTE N 300MG CAP BL9X10</t>
@@ -204,7 +270,7 @@
     <t>ESSENTIALE</t>
   </si>
   <si>
-    <t>DH</t>
+    <t>Hepatoprotectors</t>
   </si>
   <si>
     <t>ESSENTIALE FORTE N CAPS 300MG #30</t>
@@ -214,6 +280,9 @@
   </si>
   <si>
     <t>FESTAL</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
   <si>
     <t>FESTAL DRAGEE 200MG #40</t>
@@ -294,7 +363,14 @@
     <t>NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
   </si>
   <si>
+    <t>NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
+  </si>
+  <si>
     <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS</t>
+  </si>
+  <si>
+    <t>
+3582910082682 </t>
   </si>
   <si>
     <t>FINALGON</t>
@@ -342,41 +418,45 @@
 8901083060115</t>
   </si>
   <si>
-    <t>
-MAALOX TABS 400MG #20,
-MAALOX stick pack 4,3ml #6 red fruit taste, 
-MAALOX MINI-STICK 4,3ML #6,
-MAALOX Sugar-free tabs,
-MAALOX VIALS 250ML #1,
-MAALOX SACHETS 15ML #30
-</t>
+    <t>FESTAL DRAGEE 200MG #20,
+FESTAL DRAGEE 200MG #40</t>
+  </si>
+  <si>
+    <t>8901083060122,
+8901083060139</t>
+  </si>
+  <si>
+    <t>MAALOX TABS 400MG #20,
+MAALOX stick pack 4,3ml #6 red fruit taste</t>
   </si>
   <si>
     <t>3582910072218,
-3582910075660,
-3582910044796,
-3582910072232,
-3582910074922,
-3587080000511
-</t>
+3582910075660</t>
+  </si>
+  <si>
+    <t>Guttalax</t>
   </si>
   <si>
     <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
 LASOLVAN 15mg/5ml Syrup 100ml,
 LASOLVAN 30mg/5ml Syrup 100ml,
-LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU,
-LASOLVAN 30MG TAB BL2X10 M60 RU,
-LASOLVAN 30MG TAB BL5X10 M60 RU,
-LASOLVAN 15MG LOZE BL2X10 M36 RU</t>
+LASOLVAN MAX 75MG CAPCR BL1X10 M36 RU,</t>
   </si>
   <si>
     <t>9006968004082,
 9006968011882,
 9006968011479,
-9006968010793, 
-9006968006178,
-9006968000565,
-9006968006178</t>
+9006968010793</t>
+  </si>
+  <si>
+    <t>LASOLVAN 300MG/40ML SOLIN BT1 M60 RU, 
+LASOLVAN 15mg/5ml Syrup 100ml,
+LASOLVAN 30mg/5ml Syrup 100ml</t>
+  </si>
+  <si>
+    <t>9006968004082,
+9006968011882,
+9006968011479</t>
   </si>
   <si>
     <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
@@ -386,6 +466,14 @@
   <si>
     <t>3582910070252,
 3582910026723,
+3582910071259</t>
+  </si>
+  <si>
+    <t>MAGNE B6 TABS 48MG/5MG BLIST #50,
+MAGNE B6 FORTE #30</t>
+  </si>
+  <si>
+    <t>3582910070252,
 3582910071259</t>
   </si>
   <si>
@@ -400,15 +488,31 @@
     <t>NO-SPA TABS 40MG #100,
 NO-SPA 40mg #24,
 NO-SPA TAB 40 MG (PUSH-TOP) #60,
-No Spa 40 mg city pack #6,
-NO-SPA TAB 40 MG (PUSH-TOP) #64</t>
+NO-SPA FORTE 80MG TAB BL1X24 M36 RU</t>
   </si>
   <si>
     <t>5997086103280,
 3582910060758,
 5997086105055,
-3582910041870,
-3582910075004</t>
+3582910062172</t>
+  </si>
+  <si>
+    <t>NO-SPA TABS 40MG #100,
+NO-SPA 40mg #24,
+NO-SPA TAB 40 MG (PUSH-TOP) #60</t>
+  </si>
+  <si>
+    <t>5997086103280,
+3582910060758,
+5997086105055</t>
+  </si>
+  <si>
+    <t>NO-SPA TABS 40MG #100,
+NO-SPA 40mg #24</t>
+  </si>
+  <si>
+    <t>5997086103280,
+3582910060758</t>
   </si>
   <si>
     <t>FINALGON CREAM/35G 1/1,7+10,8MG/G RUS,
@@ -420,34 +524,61 @@
   </si>
   <si>
     <t>Zodac TABS.FLM.30X10MG,
-Zodac GTT.20ML,
-Zodac TABS.FLM.10X10MG,
-Zodac EXPRESS TABS 7X5MG,
-Zodac EXPRESS TABS 28X5MG
+Zodac GTT.20ML</t>
+  </si>
+  <si>
+    <t>8594739055421,
+8594739055209
 </t>
   </si>
   <si>
-    <t>8594739055421,
-8594739055209,
-8594739055414,
-3582910068518,
-3582910068525
+    <t>8594739055209
 </t>
   </si>
   <si>
-    <t>RUS Mucosolvan Shelf Tray </t>
+    <t>D-Sun primary POSM</t>
   </si>
   <si>
     <t>RU-ST-01</t>
   </si>
   <si>
-    <t>Mucosolvan</t>
-  </si>
-  <si>
-    <t>RUS  D-Sun Shelf Tray </t>
+    <t>Essentiale primary POSM</t>
   </si>
   <si>
     <t>RU-ST-02</t>
+  </si>
+  <si>
+    <t>Essentiale</t>
+  </si>
+  <si>
+    <t>Lasolvan primary POSM</t>
+  </si>
+  <si>
+    <t>RU-ST-03</t>
+  </si>
+  <si>
+    <t>Lasolvan</t>
+  </si>
+  <si>
+    <t>Magne B6 primary POSM</t>
+  </si>
+  <si>
+    <t>RU-ST-04</t>
+  </si>
+  <si>
+    <t>Magne B6</t>
+  </si>
+  <si>
+    <t>No-spa primary POSM</t>
+  </si>
+  <si>
+    <t>RU-ST-05</t>
+  </si>
+  <si>
+    <t>No-Spa</t>
+  </si>
+  <si>
+    <t>No Spa 40 mg city pack #6</t>
   </si>
 </sst>
 </file>
@@ -460,7 +591,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -548,13 +679,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
@@ -563,8 +687,25 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -576,12 +717,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -591,14 +738,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,13 +785,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -659,8 +806,20 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -774,6 +933,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -796,9 +962,16 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right/>
       <top style="thin"/>
-      <bottom/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -809,58 +982,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -868,29 +989,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -925,7 +1025,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,11 +1142,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1055,22 +1159,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,6 +1194,26 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1094,11 +1222,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1106,7 +1238,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,95 +1246,107 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="6" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,168 +1354,52 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1384,6 +1412,21 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1394,22 +1437,22 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7E7"/>
+      <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFEDEDED"/>
+      <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
+      <rgbColor rgb="FFB4C7E7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1419,16 +1462,16 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1460,15 +1503,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>866880</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>340920</xdr:rowOff>
+      <xdr:colOff>1001880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>867240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>341280</xdr:rowOff>
+      <xdr:colOff>1002240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1481,8 +1524,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971880" y="1519920"/>
+          <a:off x="4106880" y="1474920"/>
           <a:ext cx="360" cy="360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>915120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>261720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>915480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>378000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4020120" y="1462320"/>
+          <a:ext cx="360" cy="116280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,6 +1578,48 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1999800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>284400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2000880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>474120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 10" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4180680" y="901440"/>
+          <a:ext cx="1080" cy="189720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -1509,17 +1631,17 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1630,96 +1752,116 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="15"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1738,21 +1880,21 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:26"/>
+  <dimension ref="1:27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -1765,619 +1907,1912 @@
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
       <c r="G1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="39.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="32" t="n">
+      <c r="A3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="35" t="n">
+      <c r="D3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="32" t="n">
+      <c r="A4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35" t="n">
+      <c r="D4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="36" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="32" t="n">
+    <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="35" t="n">
-        <v>1</v>
+      <c r="D5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="36" t="n">
+        <v>0</v>
       </c>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="32" t="n">
+      <c r="A6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35" t="n">
-        <v>1</v>
+      <c r="D6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="32" t="n">
+      <c r="A7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35" t="n">
-        <v>1</v>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="32" t="n">
+      <c r="A8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="35" t="n">
+      <c r="D8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="32" t="n">
+      <c r="A9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="35" t="n">
-        <v>1</v>
+      <c r="D9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="32" t="n">
+      <c r="A10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="35" t="n">
-        <v>1</v>
+      <c r="D10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="32" t="n">
+      <c r="A11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="n">
         <v>9006968004082</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="35" t="n">
-        <v>1</v>
+      <c r="D11" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="32" t="n">
+      <c r="A12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="42" t="n">
         <v>9006968011882</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="35" t="n">
+      <c r="D12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="32" t="n">
+      <c r="A13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="42" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="35" t="n">
-        <v>1</v>
+      <c r="D13" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="32" t="n">
+      <c r="A14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="42" t="n">
         <v>9006968010793</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35" t="n">
-        <v>1</v>
+      <c r="D14" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="32" t="n">
+      <c r="A15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35" t="n">
+      <c r="D15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="32" t="n">
+      <c r="A16" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35" t="n">
-        <v>1</v>
+      <c r="D16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="32" t="n">
+      <c r="A17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35" t="n">
+      <c r="D17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="32" t="n">
+      <c r="A18" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="35" t="n">
-        <v>1</v>
+      <c r="D18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="32" t="n">
+      <c r="A19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="35" t="n">
-        <v>1</v>
+      <c r="D19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="32" t="n">
+      <c r="A20" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="35" t="n">
+      <c r="D20" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="32" t="n">
+      <c r="A21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="35" t="n">
+      <c r="D21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="32" t="n">
+      <c r="A22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="35" t="n">
-        <v>1</v>
+      <c r="D22" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="32" t="n">
-        <v>3582910082682</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="35" t="n">
-        <v>1</v>
+      <c r="A23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="33" t="n">
+        <v>3582910062172</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="32" t="n">
-        <v>9006968004532</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="35" t="n">
-        <v>1</v>
+    <row r="24" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="32" t="n">
-        <v>8594739055209</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="35" t="n">
-        <v>1</v>
+      <c r="A25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="33" t="n">
+        <v>9006968004532</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="32" t="n">
+      <c r="A26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="33" t="n">
+        <v>8594739055209</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="33" t="n">
         <v>8594739055421</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="35" t="n">
+      <c r="D27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="36" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H26"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:X1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:B27">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2395,21 +3830,21 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2420,147 +3855,371 @@
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
     </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
     </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
+    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
     </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+    <row r="8" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
+      <c r="A9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G12"/>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:W1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2579,53 +4238,53 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMH14"/>
+  <dimension ref="A1:AMH21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45"/>
+      <c r="A1" s="53"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="25"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
@@ -3625,47 +5284,79 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
+    <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
+      <c r="H2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -4666,44 +6357,78 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
+      <c r="B3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="60" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -5704,44 +7429,78 @@
       <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
+      <c r="B4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="60" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -6741,249 +8500,1267 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="104.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+    <row r="5" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="52" t="n">
+      <c r="B5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="60" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+    <row r="6" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="32" t="n">
-        <v>3582910075660</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="52" t="n">
-        <v>1</v>
+      <c r="B6" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="32" t="n">
+      <c r="B7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="57" t="n">
+        <v>3582910075660</v>
+      </c>
+      <c r="F7" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="57" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="52" t="n">
-        <v>1</v>
+      <c r="F8" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="81.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="52" t="n">
-        <v>1</v>
+      <c r="B9" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="55" t="n">
-        <v>1</v>
+      <c r="B10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="B11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="57" t="n">
+        <v>9006968011882</v>
+      </c>
+      <c r="F11" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="55" t="n">
-        <v>1</v>
+      <c r="C18" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="60" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="58.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="50" t="s">
+      <c r="B19" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E19" s="57" t="n">
+        <v>9006968004532</v>
+      </c>
+      <c r="F19" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="32" t="n">
-        <v>8594739055209</v>
-      </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="81.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="57" t="n">
+      <c r="E21" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="69" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="70" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:X1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7002,22 +9779,22 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="56.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="6"/>
+    <col collapsed="false" hidden="false" max="1022" min="8" style="52" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7027,83 +9804,356 @@
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
-      <c r="F1" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="62"/>
+      <c r="F1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="41" t="s">
+    <row r="2" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="47" t="s">
+      <c r="E2" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>33</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="54" t="n">
-        <v>1</v>
-      </c>
+      <c r="B3" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="56" t="n">
-        <v>1</v>
-      </c>
+      <c r="B4" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:W1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7112,6 +10162,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7121,23 +10172,23 @@
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:26"/>
+  <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="6"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="52" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="52" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="52" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="52" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="52" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="52" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="52" width="6"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="52" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7148,26 +10199,26 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="69"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
+      <c r="G1" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
       <c r="Y1" s="0"/>
       <c r="Z1" s="0"/>
       <c r="AA1" s="0"/>
@@ -8167,47 +11218,79 @@
       <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="71" t="s">
+    <row r="2" customFormat="false" ht="48.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="D2" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="E2" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="G2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
+      <c r="H2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="Y2" s="0"/>
       <c r="Z2" s="0"/>
       <c r="AA2" s="0"/>
@@ -9208,46 +12291,78 @@
       <c r="AMH2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="73" t="n">
+      <c r="B3" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="33" t="n">
         <v>3582910078913</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="76" t="n">
+      <c r="D3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H3" s="77" t="n">
+      <c r="H3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
+      <c r="L3" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="0"/>
       <c r="Z3" s="0"/>
       <c r="AA3" s="0"/>
@@ -10248,46 +13363,78 @@
       <c r="AMH3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="79" t="n">
+      <c r="B4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="33" t="n">
         <v>3582910077305</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="82" t="n">
+      <c r="D4" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="83" t="n">
+      <c r="H4" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
+      <c r="L4" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="36" t="n">
+        <v>1</v>
+      </c>
       <c r="Y4" s="0"/>
       <c r="Z4" s="0"/>
       <c r="AA4" s="0"/>
@@ -11287,584 +14434,2046 @@
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
     </row>
-    <row r="5" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="s">
+    <row r="5" s="39" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="73" t="n">
+      <c r="B5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="33" t="n">
         <v>8901083060122</v>
       </c>
-      <c r="D5" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="76" t="n">
+      <c r="D5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="77" t="n">
-        <v>1</v>
+      <c r="H5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="36" t="n">
+        <v>0</v>
       </c>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="85" t="n">
+      <c r="B6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="33" t="n">
         <v>8901083060139</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="89" t="n">
-        <v>1</v>
+      <c r="D6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="79" t="n">
+      <c r="B7" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>8901083060115</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="83" t="n">
-        <v>1</v>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="73" t="n">
+      <c r="B8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="33" t="n">
         <v>3582910072218</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="77" t="n">
+      <c r="D8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="79" t="n">
+      <c r="B9" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>3582910075660</v>
       </c>
-      <c r="D9" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="83" t="n">
-        <v>1</v>
+      <c r="D9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="92" t="n">
+      <c r="B10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="33" t="n">
         <v>9006968001890</v>
       </c>
-      <c r="D10" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="95" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="96" t="n">
-        <v>1</v>
+      <c r="D10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="73" t="n">
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="33" t="n">
         <v>9006968004082</v>
       </c>
-      <c r="D11" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="76" t="n">
+      <c r="D11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="77" t="n">
-        <v>1</v>
+      <c r="H11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="85" t="n">
+      <c r="B12" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="33" t="n">
         <v>9006968011882</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="89" t="n">
+      <c r="D12" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="85" t="n">
+      <c r="B13" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="33" t="n">
         <v>9006968011479</v>
       </c>
-      <c r="D13" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="89" t="n">
-        <v>1</v>
+      <c r="D13" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="79" t="n">
+      <c r="B14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="33" t="n">
         <v>9006968010793</v>
       </c>
-      <c r="D14" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="83" t="n">
-        <v>1</v>
+      <c r="D14" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="98" t="n">
+      <c r="B15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="33" t="n">
         <v>3582910070252</v>
       </c>
-      <c r="D15" s="99" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="100" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="101" t="n">
+      <c r="D15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="102" t="n">
+      <c r="H15" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="85" t="n">
+      <c r="B16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="33" t="n">
         <v>3582910026723</v>
       </c>
-      <c r="D16" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="89" t="n">
-        <v>1</v>
+      <c r="D16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="104" t="n">
+      <c r="B17" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="33" t="n">
         <v>3582910071259</v>
       </c>
-      <c r="D17" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="108" t="n">
+      <c r="D17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="73" t="n">
+      <c r="B18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="33" t="n">
         <v>7896070607590</v>
       </c>
-      <c r="D18" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="77" t="n">
-        <v>1</v>
+      <c r="D18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="79" t="n">
+      <c r="B19" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="33" t="n">
         <v>7896070607606</v>
       </c>
-      <c r="D19" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="82" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="83" t="n">
-        <v>1</v>
+      <c r="D19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="73" t="n">
+      <c r="B20" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="33" t="n">
         <v>5997086103280</v>
       </c>
-      <c r="D20" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="77" t="n">
+      <c r="D20" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="85" t="n">
+      <c r="B21" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="33" t="n">
         <v>3582910060758</v>
       </c>
-      <c r="D21" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="88" t="n">
+      <c r="D21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="89" t="n">
+      <c r="H21" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" s="36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="79" t="n">
+      <c r="B22" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="33" t="n">
         <v>5997086105055</v>
       </c>
-      <c r="D22" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="83" t="n">
-        <v>1</v>
+      <c r="D22" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="109" t="n">
-        <v>3582910082682</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="77" t="n">
-        <v>1</v>
+      <c r="B23" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="85" t="n">
+        <v>3582910062172</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="79" t="n">
-        <v>9006968004532</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="83" t="n">
-        <v>1</v>
+      <c r="B24" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="86" t="n">
+        <v>3582910082682</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="73" t="n">
-        <v>8594739055209</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="75" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="77" t="n">
-        <v>1</v>
+      <c r="B25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="33" t="n">
+        <v>9006968004532</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="33" t="n">
+        <v>8594739055209</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="33" t="n">
+        <v>8594739055421</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="90" t="n">
+        <v>8594739055421</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="90" t="n">
+        <v>3582910070252</v>
+      </c>
+      <c r="D29" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="104" t="n">
-        <v>8594739055421</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="107" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="108" t="n">
-        <v>0</v>
+      <c r="E29" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="90" t="n">
+        <v>3582910077305</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="90" t="n">
+        <v>3582910041870</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="93" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="92" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="X31" s="92" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G26"/>
+  <autoFilter ref="A2:H31"/>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G1:X1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
